--- a/medicine/Mort/Cimetière_des_Picotés/Cimetière_des_Picotés.xlsx
+++ b/medicine/Mort/Cimetière_des_Picotés/Cimetière_des_Picotés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Picot%C3%A9s</t>
+          <t>Cimetière_des_Picotés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cimetière des Picotés est un ancien cimetière de Québec. Il a accueilli les paroissiens de Québec de 1702 à 1857. Ce n'est qu'en 1861 que les derniers corps du cimetière des Picotés furent transportés au nouveau cimetière Notre-Dame-de-Belmont. Il était situé dans le Vieux-Québec, près de l'Hôtel-Dieu de Québec, au coin des rues Hamel et Couillard.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Picot%C3%A9s</t>
+          <t>Cimetière_des_Picotés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 1700 et 1701, une épidémie de grippe emporte plus d'une centaine de personnes. Les cimetières existants de Sainte-Famille, Sainte-Anne et Saint-Joseph qui ceinturent la cathédrale de Québec furent presque entièrement remplis. Il fallait créer un nouveau cimetière.
 Un nouveau terrain fut trouvé appartenant à l'Hôtel-Dieu de Québec. La fabrique de Notre-Dame de Québec acheta le terrain dès 1702. À la fin de cette même année et au début de la suivante, une nouvelle épidémie de petite vérole, appelé épidémie de picote, ravagea la population. Elle fit plus de trois cents victimes qui furent inhumées dans ce nouveau cimetière qui prit le nom de "Picotés".
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Picot%C3%A9s</t>
+          <t>Cimetière_des_Picotés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Philippe-François de Rastel de Rocheblave
 Joseph Drapeau
